--- a/instance/mydata.xlsx
+++ b/instance/mydata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mega\Work\SAE\Python Projects\excelrd\instance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Karlancer\excel to django\backup 5 important\New folder\instance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA26965-DD5B-4859-B30C-43EE86858041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CF298E-2F43-42B8-B5BD-C8D6FA115305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
   <si>
     <t>ProductID</t>
   </si>
   <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
@@ -68,13 +62,67 @@
   </si>
   <si>
     <t>Profit</t>
+  </si>
+  <si>
+    <t>تاریخ</t>
+  </si>
+  <si>
+    <t>نام_کالا</t>
+  </si>
+  <si>
+    <t>1399-10-01</t>
+  </si>
+  <si>
+    <t>1400-05-25</t>
+  </si>
+  <si>
+    <t>1402-01-18</t>
+  </si>
+  <si>
+    <t>1402-03-25</t>
+  </si>
+  <si>
+    <t>1402-03-26</t>
+  </si>
+  <si>
+    <t>1402-03-27</t>
+  </si>
+  <si>
+    <t>1402-01-19</t>
+  </si>
+  <si>
+    <t>1402-02-05</t>
+  </si>
+  <si>
+    <t>1399-10-02</t>
+  </si>
+  <si>
+    <t>1399-08-19</t>
+  </si>
+  <si>
+    <t>1399-08-20</t>
+  </si>
+  <si>
+    <t>1399-08-21</t>
+  </si>
+  <si>
+    <t>1399-08-22</t>
+  </si>
+  <si>
+    <t>1399-08-23</t>
+  </si>
+  <si>
+    <t>1399-08-24</t>
+  </si>
+  <si>
+    <t>1402-03-28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +140,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,9 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -424,40 +481,46 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2022</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1436</v>
@@ -469,15 +532,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2021</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
       <c r="D3">
         <v>2625</v>
@@ -489,15 +552,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>2020</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4">
         <v>2822</v>
@@ -509,15 +572,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2023</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1855</v>
@@ -529,15 +592,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>2024</v>
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6">
         <v>3922</v>
@@ -549,15 +612,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>2022</v>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
       <c r="D7">
         <v>4388</v>
@@ -569,15 +632,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>2021</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
       <c r="D8">
         <v>4266</v>
@@ -589,15 +652,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>2020</v>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
       <c r="D9">
         <v>4974</v>
@@ -609,15 +672,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>2023</v>
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
       <c r="D10">
         <v>2493</v>
@@ -629,15 +692,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>2024</v>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
       <c r="D11">
         <v>4183</v>
@@ -649,15 +712,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>2022</v>
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
       <c r="D12">
         <v>4186</v>
@@ -669,15 +732,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>2021</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1996</v>
@@ -689,15 +752,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2020</v>
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
       </c>
       <c r="D14">
         <v>1175</v>
@@ -709,15 +772,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>2023</v>
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
       </c>
       <c r="D15">
         <v>2189</v>
@@ -729,15 +792,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>2024</v>
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
       </c>
       <c r="D16">
         <v>1859</v>
@@ -749,15 +812,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>2022</v>
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
       <c r="D17">
         <v>3411</v>
@@ -769,15 +832,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>2021</v>
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
       </c>
       <c r="D18">
         <v>2488</v>
@@ -789,15 +852,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>2020</v>
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
       </c>
       <c r="D19">
         <v>2445</v>
@@ -809,15 +872,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>2023</v>
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
       </c>
       <c r="D20">
         <v>2677</v>
@@ -829,15 +892,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>2024</v>
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
       </c>
       <c r="D21">
         <v>4402</v>
@@ -849,15 +912,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>2022</v>
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
       </c>
       <c r="D22">
         <v>4088</v>
@@ -869,15 +932,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>2021</v>
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
       </c>
       <c r="D23">
         <v>3658</v>
@@ -889,15 +952,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>2020</v>
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
       </c>
       <c r="D24">
         <v>3298</v>
@@ -909,15 +972,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>2023</v>
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
       </c>
       <c r="D25">
         <v>4298</v>
@@ -929,15 +992,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>2024</v>
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
       </c>
       <c r="D26">
         <v>3578</v>
@@ -949,15 +1012,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>2022</v>
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
       </c>
       <c r="D27">
         <v>4349</v>
@@ -969,15 +1032,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>2021</v>
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
       </c>
       <c r="D28">
         <v>1962</v>
@@ -989,15 +1052,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>2020</v>
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
       </c>
       <c r="D29">
         <v>2148</v>
@@ -1009,15 +1072,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>2023</v>
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
       </c>
       <c r="D30">
         <v>3648</v>
@@ -1029,15 +1092,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>2024</v>
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
       </c>
       <c r="D31">
         <v>4451</v>
@@ -1049,15 +1112,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>2022</v>
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
       </c>
       <c r="D32">
         <v>2826</v>
@@ -1069,15 +1132,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <v>2021</v>
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
       </c>
       <c r="D33">
         <v>3827</v>
@@ -1089,15 +1152,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34">
-        <v>2020</v>
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
       </c>
       <c r="D34">
         <v>4946</v>
@@ -1109,15 +1172,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35">
-        <v>2023</v>
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
       </c>
       <c r="D35">
         <v>3035</v>
@@ -1129,15 +1192,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36">
-        <v>2024</v>
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
       </c>
       <c r="D36">
         <v>3485</v>
@@ -1149,15 +1212,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>2022</v>
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
       </c>
       <c r="D37">
         <v>2126</v>
@@ -1169,15 +1232,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>2021</v>
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
       </c>
       <c r="D38">
         <v>4342</v>
@@ -1189,15 +1252,15 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>2020</v>
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
       </c>
       <c r="D39">
         <v>3143</v>
@@ -1209,15 +1272,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>2023</v>
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
       </c>
       <c r="D40">
         <v>4603</v>
@@ -1229,15 +1292,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41">
-        <v>2024</v>
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
       </c>
       <c r="D41">
         <v>3030</v>
@@ -1249,15 +1312,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42">
-        <v>2022</v>
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
       </c>
       <c r="D42">
         <v>4715</v>
@@ -1269,15 +1332,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43">
-        <v>2021</v>
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
       </c>
       <c r="D43">
         <v>1926</v>
@@ -1289,15 +1352,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44">
-        <v>2020</v>
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
       </c>
       <c r="D44">
         <v>1403</v>
@@ -1309,15 +1372,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45">
-        <v>2023</v>
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
       </c>
       <c r="D45">
         <v>2528</v>
@@ -1329,15 +1392,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <v>2024</v>
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
       </c>
       <c r="D46">
         <v>3800</v>
@@ -1349,15 +1412,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47">
-        <v>2022</v>
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
       </c>
       <c r="D47">
         <v>4073</v>
@@ -1369,15 +1432,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48">
-        <v>2021</v>
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
       </c>
       <c r="D48">
         <v>1233</v>
@@ -1389,15 +1452,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49">
-        <v>2020</v>
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
       </c>
       <c r="D49">
         <v>1918</v>
@@ -1409,15 +1472,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50">
-        <v>2023</v>
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
       </c>
       <c r="D50">
         <v>1689</v>
@@ -1429,15 +1492,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51">
-        <v>2024</v>
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
       </c>
       <c r="D51">
         <v>3907</v>
@@ -1452,5 +1515,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>